--- a/backend/debug_output.xlsx
+++ b/backend/debug_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,46 +454,6 @@
           <t>Unnamed: 8</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 14</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 20</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 26</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 32</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 38</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 44</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 50</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 56</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -508,46 +468,6 @@
           <t>#Ch2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>#Ch3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#Ch4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>#Ch5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>#Ch6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>#Ch7</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>#Ch8</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>#Ch9</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>#Ch10</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -566,46 +486,6 @@
           <t>Fab_2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Fab_3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fab_4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fab_5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Fab_6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Fab_7</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Fab_8</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Fab_9</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Fab_10</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -624,46 +504,6 @@
           <t>Maker_2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Maker_3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maker_4</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Maker_5</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Maker_6</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Maker_7</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Maker_8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Maker_9</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Maker_10</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -682,46 +522,6 @@
           <t>Model_2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Model_3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Model_4</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Model_5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Model_6</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Model_7</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Model_8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Model_9</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Model_10</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -732,52 +532,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EQ_ID_1</t>
+          <t>4ADB8SF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>EQ_ID_2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EQ_ID_3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EQ_ID_4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EQ_ID_5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EQ_ID_6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>EQ_ID_7</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>EQ_ID_8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>EQ_ID_9</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>EQ_ID_10</t>
         </is>
       </c>
     </row>
@@ -798,46 +558,6 @@
           <t>PM2</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PM3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PM4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PM6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>PM7</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>PM8</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PM9</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>PM10</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -848,52 +568,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EQ_ID_1_PM1</t>
+          <t>4ADB8SF_PM1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>EQ_ID_2_PM2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EQ_ID_3_PM3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EQ_ID_4_PM4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>EQ_ID_5_PM5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EQ_ID_6_PM6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>EQ_ID_7_PM7</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>EQ_ID_8_PM8</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>EQ_ID_9_PM9</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>EQ_ID_10_PM10</t>
         </is>
       </c>
     </row>
@@ -910,30 +590,6 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -945,34 +601,8 @@
       <c r="C10" t="n">
         <v>150</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>200</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>150</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="D10" t="n">
         <v>400</v>
-      </c>
-      <c r="J10" t="n">
-        <v>150</v>
-      </c>
-      <c r="K10" t="n">
-        <v>180</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -986,34 +616,8 @@
       <c r="C11" t="n">
         <v>15</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15</v>
-      </c>
-      <c r="H11" t="n">
-        <v>120</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="D11" t="n">
         <v>40</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1027,20 +631,6 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1053,20 +643,6 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1079,20 +655,6 @@
       <c r="D14" t="n">
         <v>90</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>45</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>45</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1101,20 +663,6 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1129,30 +677,6 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1167,30 +691,6 @@
       <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1205,30 +705,6 @@
       <c r="D18" t="n">
         <v>70</v>
       </c>
-      <c r="E18" t="n">
-        <v>130</v>
-      </c>
-      <c r="F18" t="n">
-        <v>105</v>
-      </c>
-      <c r="G18" t="n">
-        <v>105</v>
-      </c>
-      <c r="H18" t="n">
-        <v>150</v>
-      </c>
-      <c r="I18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J18" t="n">
-        <v>140</v>
-      </c>
-      <c r="K18" t="n">
-        <v>105</v>
-      </c>
-      <c r="L18" t="n">
-        <v>135</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1243,30 +719,6 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1281,30 +733,6 @@
       <c r="D20" t="n">
         <v>400</v>
       </c>
-      <c r="E20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12000</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7000</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1320,30 +748,6 @@
       <c r="D21" t="n">
         <v>40</v>
       </c>
-      <c r="E21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G21" t="n">
-        <v>500</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L21" t="n">
-        <v>700</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1356,28 +760,6 @@
         <v>5</v>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1390,28 +772,6 @@
         <v>4</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1424,28 +784,6 @@
         <v>45</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>45</v>
-      </c>
-      <c r="F24" t="n">
-        <v>45</v>
-      </c>
-      <c r="G24" t="n">
-        <v>45</v>
-      </c>
-      <c r="H24" t="n">
-        <v>45</v>
-      </c>
-      <c r="I24" t="n">
-        <v>45</v>
-      </c>
-      <c r="J24" t="n">
-        <v>45</v>
-      </c>
-      <c r="K24" t="n">
-        <v>45</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1454,28 +792,6 @@
         <v>4</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1484,21 +800,9 @@
           <t>Reducer2 입구 직경[IN]</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>12</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>2</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1508,21 +812,9 @@
           <t>Reducer2 출구 직경[IN]</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>13</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>5</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1536,16 +828,6 @@
       <c r="D28" t="n">
         <v>130</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1558,16 +840,6 @@
       <c r="D29" t="n">
         <v>5</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1580,16 +852,6 @@
       <c r="D30" t="n">
         <v>10000</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>5000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1603,16 +865,6 @@
       <c r="D31" t="n">
         <v>1000</v>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1625,16 +877,6 @@
       <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1647,16 +889,6 @@
       <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1667,16 +899,6 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>45</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1687,44 +909,18 @@
       <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1735,56 +931,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1795,14 +959,6 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
